--- a/src/test/resources/testdata/FeedbackData.xlsx
+++ b/src/test/resources/testdata/FeedbackData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SowmyaWorkspace\Zerobank\ZeroBank\seleniumwebdriver3\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SowmyaWorkspace\ZeroBankProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6B24A0-1B03-45E0-B501-9095D0E93146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753FA2F-BC77-402F-92A9-C6C2D5865B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -34,128 +34,80 @@
     <t>Questions</t>
   </si>
   <si>
+    <t>Sowmya</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>sowmya@gmail.com</t>
+  </si>
+  <si>
+    <t>priya@gmail.com</t>
+  </si>
+  <si>
+    <t>JustChecking</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Need help.</t>
+  </si>
+  <si>
+    <t>Great site!</t>
+  </si>
+  <si>
+    <t>@@@</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Sowmya</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>@@@</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>VeryLongNameWithOver50CharactersExampleTest</t>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>sowmyajaswanthreddy@gmail.com</t>
   </si>
   <si>
-    <t>sowmya123@yahoo.com</t>
-  </si>
-  <si>
-    <t>raj.kumar@company.co.in</t>
-  </si>
-  <si>
-    <t>test.user@gmail.com</t>
-  </si>
-  <si>
-    <t>invalidemail</t>
-  </si>
-  <si>
-    <t>sowmya@gmail.com</t>
-  </si>
-  <si>
-    <t>sowmya@.com</t>
-  </si>
-  <si>
-    <t>s@gmail.com</t>
-  </si>
-  <si>
-    <t>valid@email.com</t>
-  </si>
-  <si>
-    <t>test@domain.travel</t>
-  </si>
-  <si>
-    <t>test@localhost</t>
-  </si>
-  <si>
-    <t>sowmyajaswanthreddy@gmail</t>
-  </si>
-  <si>
-    <t>JustChecking</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>$$$</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>LongSubjectTextMoreThan50CharactersExampleTest</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>Good experience!</t>
-  </si>
-  <si>
-    <t>Need help with login</t>
-  </si>
-  <si>
-    <t>Thanks for your response</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Question text</t>
-  </si>
-  <si>
-    <t>Message with 500 characters</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;alert('XSS')&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>😊👍</t>
-  </si>
-  <si>
-    <t>Question</t>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>Mynam</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>sowmyajaswnathreddy@gmail.com</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +119,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,16 +164,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,21 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -551,27 +506,24 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,283 +531,91 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>677</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>7777</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{2EE28E72-1205-47B1-8A1C-7C8BA3FDC647}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>